--- a/references/The Industrial Forge - RC3.xlsx
+++ b/references/The Industrial Forge - RC3.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Master List" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Arcana" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Facilities" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Gear" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Knowledge" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Magitech" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Misc" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Sheet2" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Protection" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Quality" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Research" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Resources" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Speed" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="Master List" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Arcana" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Facilities" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Gear" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Knowledge" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="Magitech" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="Misc" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="Sheet2" sheetId="8" r:id="rId12"/>
+    <sheet state="visible" name="Protection" sheetId="9" r:id="rId13"/>
+    <sheet state="visible" name="Quality" sheetId="10" r:id="rId14"/>
+    <sheet state="visible" name="Research" sheetId="11" r:id="rId15"/>
+    <sheet state="visible" name="Resources" sheetId="12" r:id="rId16"/>
+    <sheet state="visible" name="Speed" sheetId="13" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Master List'!$A$1:$F$811</definedName>
@@ -6691,6 +6691,10 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
